--- a/data/analytics_planing_result_4.xlsx
+++ b/data/analytics_planing_result_4.xlsx
@@ -82,7 +82,7 @@
     <t>total_cost</t>
   </si>
   <si>
-    <t>6202.57</t>
+    <t>5269.20</t>
   </si>
   <si>
     <t>total_reward</t>
@@ -103,7 +103,7 @@
     <t>weight_utilization</t>
   </si>
   <si>
-    <t>2.37</t>
+    <t>0.79</t>
   </si>
   <si>
     <t>volume_utilization</t>
@@ -139,16 +139,16 @@
     <t>avg_mass_loading</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>9.00</t>
   </si>
   <si>
+    <t>6.10</t>
+  </si>
+  <si>
     <t>avg_volume_loading</t>
   </si>
   <si>
-    <t>2.50</t>
+    <t>4.10</t>
   </si>
   <si>
     <t>location_key</t>
@@ -223,7 +223,7 @@
     <t>work_loc0007</t>
   </si>
   <si>
-    <t>work_loc0008</t>
+    <t>work_loc0009</t>
   </si>
   <si>
     <t>loc0008</t>
@@ -286,31 +286,31 @@
     <t>1</t>
   </si>
   <si>
-    <t>8h 8m</t>
-  </si>
-  <si>
-    <t>5h 50m</t>
-  </si>
-  <si>
-    <t>270.66</t>
-  </si>
-  <si>
-    <t>46.40</t>
-  </si>
-  <si>
-    <t>https://www.google.ru/maps/dir//55.837956,37.48106/55.69591,37.51251/55.837956,37.48106/55.705007,37.501656/55.687854,37.482825/56.040355,37.228898/55.837956,37.48106/55.793021,37.806653/55.812886,37.794457/56.012436,37.821238/55.915094,37.764474/55.922979,37.783779/55.923932,37.755805/55.90288,37.71523/55.892748,37.726924/55.837956,37.48106</t>
-  </si>
-  <si>
-    <t>1.72</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>6h 28m</t>
+  </si>
+  <si>
+    <t>4h 10m</t>
+  </si>
+  <si>
+    <t>188.12</t>
+  </si>
+  <si>
+    <t>45.15</t>
+  </si>
+  <si>
+    <t>https://www.google.ru/maps/dir//55.837956,37.48106/55.705007,37.501656/55.69591,37.51251/55.687854,37.482825/55.613539,37.586598/55.812886,37.794457/55.793021,37.806653/56.012436,37.821238/55.915094,37.764474/55.922979,37.783779/55.923932,37.755805/55.90288,37.71523/55.892748,37.726924/56.040355,37.228898</t>
+  </si>
+  <si>
+    <t>2.16</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
     <t>total_start_to_orders_mileage</t>
-  </si>
-  <si>
-    <t>25.04</t>
   </si>
 </sst>
 </file>
@@ -448,25 +448,25 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="n">
-        <v>270657.0</v>
+        <v>188120.0</v>
       </c>
       <c r="G2" t="n">
         <v>138.0</v>
       </c>
       <c r="H2" t="n">
-        <v>350.0</v>
+        <v>250.0</v>
       </c>
       <c r="I2" t="n">
-        <v>350.0</v>
+        <v>250.0</v>
       </c>
       <c r="J2" t="n">
         <v>0.0</v>
       </c>
       <c r="K2" t="n">
-        <v>773.0</v>
+        <v>752.0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.75</v>
+        <v>2.3333332538604736</v>
       </c>
       <c r="M2" t="n">
         <v>14.0</v>
@@ -652,37 +652,37 @@
         <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P2" t="n">
         <v>14.0</v>
       </c>
       <c r="Q2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         <v>31</v>
       </c>
       <c r="B1" t="s" s="13">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="13">
         <v>13</v>
@@ -748,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B1" t="s" s="14">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="14">
         <v>13</v>
@@ -759,10 +759,10 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -835,7 +835,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>270657.0</v>
+        <v>188120.0</v>
       </c>
     </row>
     <row r="8">
@@ -843,7 +843,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>350.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="9">
@@ -944,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>270657.0</v>
+        <v>188120.0</v>
       </c>
       <c r="C2" t="n">
-        <v>270657.0</v>
+        <v>188120.0</v>
       </c>
     </row>
   </sheetData>
@@ -984,10 +984,10 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>270657.0</v>
+        <v>188120.0</v>
       </c>
       <c r="C2" t="n">
-        <v>270657.0</v>
+        <v>188120.0</v>
       </c>
     </row>
   </sheetData>
@@ -1042,13 +1042,13 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1103,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1164,7 +1164,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1225,7 +1225,7 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
